--- a/data/atp/ranking_doubles_2021-02-08.xlsx
+++ b/data/atp/ranking_doubles_2021-02-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1005">
   <si>
     <t>Rank</t>
   </si>
@@ -994,43 +994,64 @@
     <t>0 - 0</t>
   </si>
   <si>
+    <t>5 - 2</t>
+  </si>
+  <si>
+    <t>4 - 1</t>
+  </si>
+  <si>
+    <t>3 - 2</t>
+  </si>
+  <si>
+    <t>0 - 3</t>
+  </si>
+  <si>
+    <t>1 - 2</t>
+  </si>
+  <si>
+    <t>1 - 4</t>
+  </si>
+  <si>
+    <t>1 - 1</t>
+  </si>
+  <si>
+    <t>0 - 2</t>
+  </si>
+  <si>
+    <t>8 - 1</t>
+  </si>
+  <si>
+    <t>1 - 3</t>
+  </si>
+  <si>
+    <t>5 - 4</t>
+  </si>
+  <si>
+    <t>2 - 3</t>
+  </si>
+  <si>
+    <t>0 - 1</t>
+  </si>
+  <si>
+    <t>1 - 0</t>
+  </si>
+  <si>
     <t>4 - 2</t>
   </si>
   <si>
-    <t>4 - 1</t>
+    <t>3 - 3</t>
   </si>
   <si>
     <t>2 - 2</t>
   </si>
   <si>
-    <t>0 - 3</t>
-  </si>
-  <si>
-    <t>1 - 2</t>
-  </si>
-  <si>
-    <t>1 - 3</t>
-  </si>
-  <si>
-    <t>0 - 1</t>
-  </si>
-  <si>
-    <t>8 - 1</t>
-  </si>
-  <si>
-    <t>2 - 3</t>
-  </si>
-  <si>
-    <t>3 - 2</t>
-  </si>
-  <si>
-    <t>0 - 2</t>
+    <t>0 - 4</t>
   </si>
   <si>
     <t>3 - 1</t>
   </si>
   <si>
-    <t>4 - 3</t>
+    <t>4 - 4</t>
   </si>
   <si>
     <t>354 - 223</t>
@@ -1039,7 +1060,7 @@
     <t>394 - 255</t>
   </si>
   <si>
-    <t>516 - 254</t>
+    <t>517 - 254</t>
   </si>
   <si>
     <t>404 - 232</t>
@@ -1048,7 +1069,7 @@
     <t>545 - 324</t>
   </si>
   <si>
-    <t>365 - 211</t>
+    <t>366 - 211</t>
   </si>
   <si>
     <t>309 - 195</t>
@@ -1087,7 +1108,7 @@
     <t>321 - 230</t>
   </si>
   <si>
-    <t>266 - 162</t>
+    <t>267 - 162</t>
   </si>
   <si>
     <t>154 - 132</t>
@@ -1102,13 +1123,13 @@
     <t>473 - 286</t>
   </si>
   <si>
-    <t>546 - 418</t>
-  </si>
-  <si>
-    <t>240 - 110</t>
-  </si>
-  <si>
-    <t>238 - 231</t>
+    <t>546 - 419</t>
+  </si>
+  <si>
+    <t>241 - 110</t>
+  </si>
+  <si>
+    <t>238 - 232</t>
   </si>
   <si>
     <t>346 - 215</t>
@@ -1135,10 +1156,10 @@
     <t>1150 - 373</t>
   </si>
   <si>
-    <t>246 - 261</t>
-  </si>
-  <si>
-    <t>161 - 170</t>
+    <t>249 - 262</t>
+  </si>
+  <si>
+    <t>162 - 170</t>
   </si>
   <si>
     <t>57 - 79</t>
@@ -1147,13 +1168,13 @@
     <t>539 - 410</t>
   </si>
   <si>
-    <t>164 - 168</t>
+    <t>165 - 168</t>
   </si>
   <si>
     <t>131 - 71</t>
   </si>
   <si>
-    <t>249 - 191</t>
+    <t>250 - 191</t>
   </si>
   <si>
     <t>192 - 209</t>
@@ -1162,7 +1183,7 @@
     <t>284 - 220</t>
   </si>
   <si>
-    <t>161 - 187</t>
+    <t>161 - 188</t>
   </si>
   <si>
     <t>161 - 153</t>
@@ -1183,7 +1204,7 @@
     <t>62 - 59</t>
   </si>
   <si>
-    <t>394 - 359</t>
+    <t>395 - 359</t>
   </si>
   <si>
     <t>253 - 155</t>
@@ -1198,7 +1219,7 @@
     <t>108 - 104</t>
   </si>
   <si>
-    <t>132 - 160</t>
+    <t>133 - 160</t>
   </si>
   <si>
     <t>89 - 97</t>
@@ -1216,10 +1237,10 @@
     <t>37 - 61</t>
   </si>
   <si>
-    <t>241 - 133</t>
-  </si>
-  <si>
-    <t>130 - 120</t>
+    <t>242 - 133</t>
+  </si>
+  <si>
+    <t>131 - 120</t>
   </si>
   <si>
     <t>58 - 56</t>
@@ -1231,7 +1252,7 @@
     <t>254 - 211</t>
   </si>
   <si>
-    <t>197 - 177</t>
+    <t>198 - 177</t>
   </si>
   <si>
     <t>260 - 300</t>
@@ -1267,19 +1288,19 @@
     <t>156 - 174</t>
   </si>
   <si>
-    <t>45 - 58</t>
-  </si>
-  <si>
-    <t>80 - 70</t>
+    <t>45 - 59</t>
+  </si>
+  <si>
+    <t>80 - 71</t>
   </si>
   <si>
     <t>77 - 92</t>
   </si>
   <si>
-    <t>93 - 111</t>
-  </si>
-  <si>
-    <t>85 - 98</t>
+    <t>93 - 112</t>
+  </si>
+  <si>
+    <t>85 - 99</t>
   </si>
   <si>
     <t>91 - 127</t>
@@ -1297,7 +1318,7 @@
     <t>140 - 96</t>
   </si>
   <si>
-    <t>43 - 90</t>
+    <t>43 - 91</t>
   </si>
   <si>
     <t>441 - 375</t>
@@ -1324,7 +1345,7 @@
     <t>80 - 117</t>
   </si>
   <si>
-    <t>45 - 78</t>
+    <t>46 - 78</t>
   </si>
   <si>
     <t>0</t>
@@ -2728,7 +2749,7 @@
     <t>2-2</t>
   </si>
   <si>
-    <t>237-266</t>
+    <t>238-266</t>
   </si>
   <si>
     <t>234-196</t>
@@ -2743,7 +2764,7 @@
     <t>251-226</t>
   </si>
   <si>
-    <t>285-236</t>
+    <t>286-237</t>
   </si>
   <si>
     <t>28-33</t>
@@ -2770,7 +2791,7 @@
     <t>128-151</t>
   </si>
   <si>
-    <t>231-155</t>
+    <t>231-156</t>
   </si>
   <si>
     <t>220-269</t>
@@ -2779,7 +2800,7 @@
     <t>175-239</t>
   </si>
   <si>
-    <t>266-173</t>
+    <t>270-173</t>
   </si>
   <si>
     <t>5-6</t>
@@ -2797,10 +2818,10 @@
     <t>0-5</t>
   </si>
   <si>
-    <t>11-14</t>
-  </si>
-  <si>
-    <t>196-173</t>
+    <t>11-15</t>
+  </si>
+  <si>
+    <t>197-174</t>
   </si>
   <si>
     <t>0-4</t>
@@ -2812,13 +2833,13 @@
     <t>5-22</t>
   </si>
   <si>
-    <t>208-272</t>
+    <t>208-273</t>
   </si>
   <si>
     <t>4-4</t>
   </si>
   <si>
-    <t>371-185</t>
+    <t>373-185</t>
   </si>
   <si>
     <t>32 (1993/07/04)</t>
@@ -3485,49 +3506,49 @@
         <v>325</v>
       </c>
       <c r="I2" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="J2" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K2" t="s">
         <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="M2" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="N2" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="O2" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="P2" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q2" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="R2" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="S2" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T2" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="U2">
         <v>163</v>
       </c>
       <c r="V2" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="W2" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -3559,49 +3580,49 @@
         <v>325</v>
       </c>
       <c r="I3" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="J3" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K3" t="s">
         <v>42</v>
       </c>
       <c r="L3" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="M3" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="N3" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="O3" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="P3" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q3" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="R3" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="S3" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T3" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="U3">
         <v>184</v>
       </c>
       <c r="V3" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="W3" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -3633,52 +3654,52 @@
         <v>326</v>
       </c>
       <c r="I4" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="J4" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K4" t="s">
         <v>63</v>
       </c>
       <c r="M4" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="N4" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="O4" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="P4" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q4" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="R4" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="S4" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="T4" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="U4">
         <v>295</v>
       </c>
       <c r="V4" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="W4" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -3707,52 +3728,52 @@
         <v>327</v>
       </c>
       <c r="I5" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="J5" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K5" t="s">
         <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="N5" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="O5" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="P5" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q5" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="R5" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="S5" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="T5" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="U5">
         <v>39</v>
       </c>
       <c r="V5" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="W5" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="X5">
         <v>1</v>
       </c>
       <c r="Y5" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -3781,49 +3802,49 @@
         <v>325</v>
       </c>
       <c r="I6" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="J6" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K6" t="s">
         <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="M6" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="N6" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="O6" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="P6" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q6" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="R6" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="S6" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T6" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="U6">
         <v>221</v>
       </c>
       <c r="V6" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="W6" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -3855,52 +3876,52 @@
         <v>328</v>
       </c>
       <c r="I7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="J7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K7" t="s">
         <v>54</v>
       </c>
       <c r="M7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="N7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="O7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="P7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="R7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="S7" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T7" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="U7">
         <v>213</v>
       </c>
       <c r="V7" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="W7" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -3929,52 +3950,52 @@
         <v>325</v>
       </c>
       <c r="I8" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="J8" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K8" t="s">
         <v>43</v>
       </c>
       <c r="M8" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="N8" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="O8" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="P8" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q8" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="R8" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="S8" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T8" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="U8">
         <v>462</v>
       </c>
       <c r="V8" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="W8" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -4003,52 +4024,52 @@
         <v>325</v>
       </c>
       <c r="I9" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="J9" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K9" t="s">
         <v>58</v>
       </c>
       <c r="M9" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="N9" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="O9" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="P9" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q9" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="R9" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="S9" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T9" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="U9">
         <v>37</v>
       </c>
       <c r="V9" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="W9" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="X9">
         <v>4</v>
       </c>
       <c r="Y9" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -4077,49 +4098,49 @@
         <v>325</v>
       </c>
       <c r="I10" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="J10" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K10" t="s">
         <v>49</v>
       </c>
       <c r="L10" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="M10" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="N10" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="O10" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="P10" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q10" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="R10" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="S10" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T10" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="U10">
         <v>41</v>
       </c>
       <c r="V10" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="W10" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -4151,52 +4172,52 @@
         <v>329</v>
       </c>
       <c r="I11" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="J11" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K11" t="s">
         <v>61</v>
       </c>
       <c r="M11" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="N11" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="O11" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="P11" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q11" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="R11" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="S11" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T11" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="U11">
         <v>273</v>
       </c>
       <c r="V11" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="W11" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -4225,52 +4246,52 @@
         <v>327</v>
       </c>
       <c r="I12" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="J12" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K12" t="s">
         <v>54</v>
       </c>
       <c r="M12" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N12" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="O12" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="P12" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q12" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="R12" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="S12" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T12" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="U12">
         <v>19</v>
       </c>
       <c r="V12" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="W12" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="X12">
         <v>4</v>
       </c>
       <c r="Y12" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -4299,52 +4320,52 @@
         <v>325</v>
       </c>
       <c r="I13" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="J13" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K13" t="s">
         <v>39</v>
       </c>
       <c r="M13" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="N13" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="O13" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="P13" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q13" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="R13" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="S13" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T13" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="U13">
         <v>559</v>
       </c>
       <c r="V13" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="W13" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -4373,52 +4394,52 @@
         <v>325</v>
       </c>
       <c r="I14" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="J14" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="N14" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="O14" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="P14" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q14" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="R14" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="S14" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T14" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="U14">
         <v>274</v>
       </c>
       <c r="V14" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="W14" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -4447,52 +4468,52 @@
         <v>330</v>
       </c>
       <c r="I15" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="J15" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K15" t="s">
         <v>51</v>
       </c>
       <c r="M15" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="N15" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="O15" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="P15" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q15" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="R15" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="S15" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T15" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="U15">
         <v>35</v>
       </c>
       <c r="V15" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="W15" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -4521,52 +4542,52 @@
         <v>330</v>
       </c>
       <c r="I16" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="J16" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K16" t="s">
         <v>54</v>
       </c>
       <c r="M16" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="N16" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="O16" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="P16" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q16" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="R16" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="S16" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T16" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="U16">
         <v>56</v>
       </c>
       <c r="V16" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="W16" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="X16">
         <v>2</v>
       </c>
       <c r="Y16" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -4595,52 +4616,52 @@
         <v>325</v>
       </c>
       <c r="I17" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="J17" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K17" t="s">
         <v>46</v>
       </c>
       <c r="M17" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="N17" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="O17" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="P17" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q17" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="R17" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="S17" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T17" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="U17">
         <v>29</v>
       </c>
       <c r="V17" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="W17" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="X17">
         <v>1</v>
       </c>
       <c r="Y17" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -4669,49 +4690,49 @@
         <v>325</v>
       </c>
       <c r="I18" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="J18" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K18" t="s">
         <v>39</v>
       </c>
       <c r="L18" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="M18" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="N18" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="O18" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="P18" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q18" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="R18" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="S18" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T18" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="U18">
         <v>555</v>
       </c>
       <c r="V18" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="W18" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -4743,49 +4764,49 @@
         <v>325</v>
       </c>
       <c r="I19" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="J19" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K19" t="s">
         <v>41</v>
       </c>
       <c r="L19" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="M19" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="N19" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="O19" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="P19" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q19" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="R19" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="S19" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T19" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="U19">
         <v>208</v>
       </c>
       <c r="V19" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="W19" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -4817,52 +4838,52 @@
         <v>326</v>
       </c>
       <c r="I20" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="J20" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K20" t="s">
         <v>35</v>
       </c>
       <c r="M20" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="N20" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="O20" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="P20" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q20" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="R20" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="S20" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T20" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="U20">
         <v>211</v>
       </c>
       <c r="V20" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="W20" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -4891,52 +4912,52 @@
         <v>325</v>
       </c>
       <c r="I21" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="J21" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K21" t="s">
         <v>30</v>
       </c>
       <c r="M21" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="N21" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="O21" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="P21" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q21" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="R21" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="S21" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T21" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="U21">
         <v>781</v>
       </c>
       <c r="V21" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="W21" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -4965,49 +4986,49 @@
         <v>325</v>
       </c>
       <c r="I22" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="J22" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K22" t="s">
         <v>39</v>
       </c>
       <c r="L22" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="M22" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N22" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="O22" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="P22" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q22" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="R22" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="S22" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="T22" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="U22">
         <v>8</v>
       </c>
       <c r="V22" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="W22" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="X22">
         <v>5</v>
@@ -5039,52 +5060,52 @@
         <v>325</v>
       </c>
       <c r="I23" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="J23" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K23" t="s">
         <v>320</v>
       </c>
       <c r="M23" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="N23" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="O23" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="P23" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="Q23" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="R23" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="S23" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="T23" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="U23">
         <v>834</v>
       </c>
       <c r="V23" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="W23" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -5113,46 +5134,46 @@
         <v>325</v>
       </c>
       <c r="I24" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="J24" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K24" t="s">
         <v>59</v>
       </c>
       <c r="L24" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="M24" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="N24" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="O24" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="P24" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q24" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="R24" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="S24" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="U24">
         <v>326</v>
       </c>
       <c r="V24" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="W24" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -5184,52 +5205,52 @@
         <v>331</v>
       </c>
       <c r="I25" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="J25" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K25" t="s">
         <v>58</v>
       </c>
       <c r="M25" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="N25" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="O25" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="P25" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q25" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="R25" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="S25" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T25" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="U25">
         <v>218</v>
       </c>
       <c r="V25" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="W25" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="X25">
         <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -5258,52 +5279,52 @@
         <v>332</v>
       </c>
       <c r="I26" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="J26" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K26" t="s">
         <v>47</v>
       </c>
       <c r="M26" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="N26" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="O26" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="P26" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q26" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="R26" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="S26" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T26" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="U26">
         <v>36</v>
       </c>
       <c r="V26" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="W26" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="X26">
         <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -5329,55 +5350,55 @@
         <v>324</v>
       </c>
       <c r="H27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I27" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="J27" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K27" t="s">
         <v>31</v>
       </c>
       <c r="M27" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="N27" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="O27" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="P27" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q27" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="R27" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="S27" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T27" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="U27">
         <v>228</v>
       </c>
       <c r="V27" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="W27" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="X27">
         <v>0</v>
       </c>
       <c r="Y27" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -5403,10 +5424,10 @@
         <v>324</v>
       </c>
       <c r="H28" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I28" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="J28" t="s">
         <v>24</v>
@@ -5415,43 +5436,43 @@
         <v>40</v>
       </c>
       <c r="M28" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="N28" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="O28" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="P28" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q28" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="R28" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="S28" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T28" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="U28">
         <v>932</v>
       </c>
       <c r="V28" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="W28" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X28">
         <v>0</v>
       </c>
       <c r="Y28" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -5477,55 +5498,55 @@
         <v>324</v>
       </c>
       <c r="H29" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I29" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="J29" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K29" t="s">
         <v>52</v>
       </c>
       <c r="M29" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="N29" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="O29" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="P29" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q29" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="R29" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="S29" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T29" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="U29">
         <v>456</v>
       </c>
       <c r="V29" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="W29" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="X29">
         <v>0</v>
       </c>
       <c r="Y29" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -5554,49 +5575,49 @@
         <v>325</v>
       </c>
       <c r="I30" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="J30" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K30" t="s">
         <v>45</v>
       </c>
       <c r="L30" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="M30" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="N30" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="O30" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="P30" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q30" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="R30" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="S30" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T30" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="U30">
         <v>82</v>
       </c>
       <c r="V30" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="W30" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -5628,46 +5649,46 @@
         <v>325</v>
       </c>
       <c r="I31" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="J31" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K31" t="s">
         <v>29</v>
       </c>
       <c r="L31" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="M31" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="N31" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="P31" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q31" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="R31" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="S31" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T31" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="U31">
         <v>145</v>
       </c>
       <c r="V31" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="W31" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -5699,49 +5720,49 @@
         <v>325</v>
       </c>
       <c r="I32" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="J32" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K32" t="s">
         <v>30</v>
       </c>
       <c r="L32" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="M32" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="N32" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="O32" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="P32" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q32" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="R32" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="S32" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T32" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="U32">
         <v>25</v>
       </c>
       <c r="V32" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="W32" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="X32">
         <v>1</v>
@@ -5773,46 +5794,46 @@
         <v>325</v>
       </c>
       <c r="I33" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="J33" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K33" t="s">
         <v>46</v>
       </c>
       <c r="L33" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="M33" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="N33" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="O33" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="P33" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q33" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="R33" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="S33" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="U33">
         <v>220</v>
       </c>
       <c r="V33" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="W33" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -5844,49 +5865,49 @@
         <v>325</v>
       </c>
       <c r="I34" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="J34" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K34" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="L34" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="M34" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="N34" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="O34" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="P34" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q34" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="R34" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="S34" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="T34" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="U34">
         <v>116</v>
       </c>
       <c r="V34" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="W34" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -5918,49 +5939,49 @@
         <v>325</v>
       </c>
       <c r="I35" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="J35" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K35" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="L35" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="M35" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="N35" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="O35" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="P35" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q35" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="R35" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="S35" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T35" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="U35">
         <v>246</v>
       </c>
       <c r="V35" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="W35" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -5989,55 +6010,55 @@
         <v>324</v>
       </c>
       <c r="H36" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I36" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="J36" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K36" t="s">
         <v>321</v>
       </c>
       <c r="M36" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="N36" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="O36" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="P36" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q36" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="R36" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="S36" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T36" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="U36">
         <v>33</v>
       </c>
       <c r="V36" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="W36" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="X36">
         <v>2</v>
       </c>
       <c r="Y36" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -6063,52 +6084,52 @@
         <v>324</v>
       </c>
       <c r="H37" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="I37" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="J37" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K37" t="s">
         <v>31</v>
       </c>
       <c r="M37" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="N37" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="O37" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="P37" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q37" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="R37" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="S37" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="U37">
         <v>508</v>
       </c>
       <c r="V37" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="W37" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X37">
         <v>0</v>
       </c>
       <c r="Y37" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -6137,52 +6158,52 @@
         <v>325</v>
       </c>
       <c r="I38" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="J38" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K38" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="M38" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="N38" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="O38" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="P38" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q38" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="R38" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="S38" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T38" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="U38">
         <v>152</v>
       </c>
       <c r="V38" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="W38" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="X38">
         <v>0</v>
       </c>
       <c r="Y38" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -6211,52 +6232,52 @@
         <v>325</v>
       </c>
       <c r="I39" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="J39" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K39" t="s">
         <v>48</v>
       </c>
       <c r="M39" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="N39" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="O39" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="P39" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q39" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="R39" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="S39" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T39" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="U39">
         <v>213</v>
       </c>
       <c r="V39" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="W39" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="X39">
         <v>0</v>
       </c>
       <c r="Y39" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -6285,52 +6306,52 @@
         <v>332</v>
       </c>
       <c r="I40" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="J40" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K40" t="s">
         <v>31</v>
       </c>
       <c r="M40" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="N40" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="O40" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="P40" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q40" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="R40" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="S40" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T40" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="U40">
         <v>574</v>
       </c>
       <c r="V40" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="W40" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X40">
         <v>0</v>
       </c>
       <c r="Y40" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -6359,49 +6380,49 @@
         <v>325</v>
       </c>
       <c r="I41" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="J41" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K41" t="s">
         <v>31</v>
       </c>
       <c r="L41" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M41" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N41" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="O41" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="P41" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="Q41" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="R41" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="S41" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T41" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="U41">
         <v>40</v>
       </c>
       <c r="V41" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="W41" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -6433,52 +6454,52 @@
         <v>328</v>
       </c>
       <c r="I42" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="J42" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K42" t="s">
         <v>36</v>
       </c>
       <c r="M42" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="N42" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="O42" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="P42" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q42" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="R42" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="S42" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="T42" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="U42">
         <v>94</v>
       </c>
       <c r="V42" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="W42" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="X42">
         <v>0</v>
       </c>
       <c r="Y42" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -6507,49 +6528,49 @@
         <v>325</v>
       </c>
       <c r="I43" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="J43" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K43" t="s">
         <v>33</v>
       </c>
       <c r="L43" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="M43" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="N43" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="O43" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="P43" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q43" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="R43" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="S43" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T43" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="U43">
         <v>206</v>
       </c>
       <c r="V43" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="W43" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -6578,55 +6599,55 @@
         <v>324</v>
       </c>
       <c r="H44" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I44" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="J44" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K44" t="s">
         <v>41</v>
       </c>
       <c r="M44" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="N44" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="O44" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="P44" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q44" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="R44" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="S44" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T44" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="U44">
         <v>58</v>
       </c>
       <c r="V44" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="W44" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="X44">
         <v>0</v>
       </c>
       <c r="Y44" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -6652,55 +6673,55 @@
         <v>324</v>
       </c>
       <c r="H45" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="I45" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="J45" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K45" t="s">
         <v>28</v>
       </c>
       <c r="M45" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="N45" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="O45" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="P45" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q45" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="R45" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="S45" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T45" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="U45">
         <v>232</v>
       </c>
       <c r="V45" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="W45" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="X45">
         <v>0</v>
       </c>
       <c r="Y45" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -6729,49 +6750,49 @@
         <v>325</v>
       </c>
       <c r="I46" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="J46" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K46" t="s">
         <v>28</v>
       </c>
       <c r="L46" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="M46" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="N46" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="O46" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="P46" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q46" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="R46" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="S46" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T46" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="U46">
         <v>500</v>
       </c>
       <c r="V46" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="W46" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -6800,55 +6821,55 @@
         <v>324</v>
       </c>
       <c r="H47" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I47" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="J47" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K47" t="s">
         <v>47</v>
       </c>
       <c r="M47" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="N47" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="O47" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="P47" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q47" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="R47" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="S47" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T47" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="U47">
         <v>155</v>
       </c>
       <c r="V47" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="W47" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="X47">
         <v>0</v>
       </c>
       <c r="Y47" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -6877,52 +6898,52 @@
         <v>325</v>
       </c>
       <c r="I48" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="J48" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K48" t="s">
         <v>36</v>
       </c>
       <c r="M48" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="N48" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="O48" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="P48" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q48" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="R48" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="S48" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T48" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="U48">
         <v>197</v>
       </c>
       <c r="V48" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="W48" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="X48">
         <v>0</v>
       </c>
       <c r="Y48" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -6951,46 +6972,46 @@
         <v>325</v>
       </c>
       <c r="I49" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="J49" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K49" t="s">
         <v>30</v>
       </c>
       <c r="L49" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="M49" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N49" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="O49" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="Q49" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="R49" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="S49" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T49" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="U49">
         <v>729</v>
       </c>
       <c r="V49" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="W49" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -7022,52 +7043,52 @@
         <v>325</v>
       </c>
       <c r="I50" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J50" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K50" t="s">
         <v>27</v>
       </c>
       <c r="M50" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="N50" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="O50" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="P50" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q50" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="R50" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="S50" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T50" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="U50">
         <v>21</v>
       </c>
       <c r="V50" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="W50" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="X50">
         <v>1</v>
       </c>
       <c r="Y50" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -7093,49 +7114,49 @@
         <v>324</v>
       </c>
       <c r="H51" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="I51" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="J51" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K51" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="M51" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="N51" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="O51" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="P51" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q51" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="S51" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="U51">
         <v>10</v>
       </c>
       <c r="V51" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="W51" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="X51">
         <v>4</v>
       </c>
       <c r="Y51" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -7161,55 +7182,55 @@
         <v>324</v>
       </c>
       <c r="H52" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="I52" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="J52" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K52" t="s">
         <v>40</v>
       </c>
       <c r="M52" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="N52" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="O52" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="P52" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q52" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="R52" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="S52" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T52" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="U52">
         <v>125</v>
       </c>
       <c r="V52" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="W52" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="X52">
         <v>0</v>
       </c>
       <c r="Y52" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -7235,55 +7256,55 @@
         <v>324</v>
       </c>
       <c r="H53" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="I53" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="J53" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K53" t="s">
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="N53" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="O53" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="P53" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q53" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="R53" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="S53" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T53" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="U53">
         <v>139</v>
       </c>
       <c r="V53" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="W53" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="X53">
         <v>0</v>
       </c>
       <c r="Y53" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -7312,52 +7333,52 @@
         <v>325</v>
       </c>
       <c r="I54" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="J54" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K54" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="M54" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="N54" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="O54" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="P54" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q54" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="R54" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="S54" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T54" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="U54">
         <v>8</v>
       </c>
       <c r="V54" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="W54" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="X54">
         <v>4</v>
       </c>
       <c r="Y54" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -7386,52 +7407,52 @@
         <v>325</v>
       </c>
       <c r="I55" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="J55" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K55" t="s">
         <v>27</v>
       </c>
       <c r="M55" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="N55" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="O55" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="P55" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q55" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="R55" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="S55" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T55" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="U55">
         <v>10</v>
       </c>
       <c r="V55" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="W55" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="X55">
         <v>7</v>
       </c>
       <c r="Y55" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -7460,49 +7481,49 @@
         <v>325</v>
       </c>
       <c r="I56" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="J56" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K56" t="s">
         <v>26</v>
       </c>
       <c r="L56" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="M56" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="N56" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="O56" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="P56" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q56" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="R56" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="S56" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T56" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="U56">
         <v>190</v>
       </c>
       <c r="V56" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="W56" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="X56">
         <v>0</v>
@@ -7531,52 +7552,52 @@
         <v>324</v>
       </c>
       <c r="H57" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="I57" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="J57" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K57" t="s">
         <v>26</v>
       </c>
       <c r="M57" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N57" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="O57" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="Q57" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="R57" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="S57" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T57" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="U57">
         <v>823</v>
       </c>
       <c r="V57" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="W57" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="X57">
         <v>0</v>
       </c>
       <c r="Y57" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -7605,46 +7626,46 @@
         <v>325</v>
       </c>
       <c r="I58" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="J58" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K58" t="s">
         <v>26</v>
       </c>
       <c r="L58" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="M58" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="N58" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="O58" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="Q58" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="R58" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="S58" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T58" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="U58">
         <v>281</v>
       </c>
       <c r="V58" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="W58" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="X58">
         <v>0</v>
@@ -7676,46 +7697,46 @@
         <v>325</v>
       </c>
       <c r="I59" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="J59" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K59" t="s">
         <v>30</v>
       </c>
       <c r="L59" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="M59" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="N59" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="O59" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="Q59" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="R59" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="S59" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="T59" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="U59">
         <v>527</v>
       </c>
       <c r="V59" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="W59" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X59">
         <v>0</v>
@@ -7747,43 +7768,43 @@
         <v>325</v>
       </c>
       <c r="I60" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="J60" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K60" t="s">
         <v>26</v>
       </c>
       <c r="L60" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="M60" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N60" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="Q60" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="R60" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="S60" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T60" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="U60">
         <v>489</v>
       </c>
       <c r="V60" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="W60" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X60">
         <v>0</v>
@@ -7815,46 +7836,46 @@
         <v>325</v>
       </c>
       <c r="I61" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="J61" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K61" t="s">
         <v>36</v>
       </c>
       <c r="L61" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="M61" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="N61" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="P61" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q61" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="R61" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="S61" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T61" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="U61">
         <v>561</v>
       </c>
       <c r="V61" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="W61" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="X61">
         <v>0</v>
@@ -7886,52 +7907,52 @@
         <v>325</v>
       </c>
       <c r="I62" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="J62" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K62" t="s">
         <v>24</v>
       </c>
       <c r="M62" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="N62" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="O62" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="P62" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q62" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="R62" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="S62" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T62" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="U62">
         <v>6</v>
       </c>
       <c r="V62" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="W62" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="X62">
         <v>10</v>
       </c>
       <c r="Y62" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -7960,52 +7981,52 @@
         <v>326</v>
       </c>
       <c r="I63" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="J63" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K63" t="s">
         <v>34</v>
       </c>
       <c r="M63" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="N63" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="O63" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="P63" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q63" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="R63" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="S63" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T63" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="U63">
         <v>163</v>
       </c>
       <c r="V63" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="W63" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="X63">
         <v>0</v>
       </c>
       <c r="Y63" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -8031,55 +8052,55 @@
         <v>324</v>
       </c>
       <c r="H64" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="I64" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="J64" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K64" t="s">
         <v>29</v>
       </c>
       <c r="M64" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="N64" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="O64" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="P64" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q64" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="R64" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="S64" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="T64" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="U64">
         <v>281</v>
       </c>
       <c r="V64" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="W64" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="X64">
         <v>0</v>
       </c>
       <c r="Y64" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -8108,49 +8129,49 @@
         <v>325</v>
       </c>
       <c r="I65" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="J65" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K65" t="s">
         <v>26</v>
       </c>
       <c r="L65" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M65" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="N65" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="O65" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="P65" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q65" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="R65" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="S65" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T65" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="U65">
         <v>481</v>
       </c>
       <c r="V65" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="W65" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X65">
         <v>0</v>
@@ -8182,46 +8203,46 @@
         <v>325</v>
       </c>
       <c r="I66" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="J66" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K66" t="s">
         <v>28</v>
       </c>
       <c r="M66" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="N66" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="P66" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q66" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="R66" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="S66" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="U66">
         <v>438</v>
       </c>
       <c r="V66" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="W66" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X66">
         <v>0</v>
       </c>
       <c r="Y66" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -8247,55 +8268,55 @@
         <v>324</v>
       </c>
       <c r="H67" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I67" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="J67" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K67" t="s">
         <v>40</v>
       </c>
       <c r="M67" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="N67" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="O67" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="P67" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q67" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="R67" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="S67" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T67" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="U67">
         <v>181</v>
       </c>
       <c r="V67" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="W67" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="X67">
         <v>0</v>
       </c>
       <c r="Y67" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -8321,55 +8342,55 @@
         <v>324</v>
       </c>
       <c r="H68" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="I68" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="J68" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K68" t="s">
         <v>31</v>
       </c>
       <c r="M68" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N68" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="O68" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="P68" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q68" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="R68" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="S68" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T68" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="U68">
         <v>327</v>
       </c>
       <c r="V68" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="W68" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="X68">
         <v>0</v>
       </c>
       <c r="Y68" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -8398,46 +8419,46 @@
         <v>325</v>
       </c>
       <c r="I69" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="J69" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K69" t="s">
         <v>29</v>
       </c>
       <c r="L69" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="M69" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="N69" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="O69" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="P69" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q69" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="R69" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="S69" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="U69">
         <v>12</v>
       </c>
       <c r="V69" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="W69" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="X69">
         <v>7</v>
@@ -8466,55 +8487,55 @@
         <v>324</v>
       </c>
       <c r="H70" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="I70" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="J70" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K70" t="s">
         <v>40</v>
       </c>
       <c r="M70" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="N70" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="O70" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="P70" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q70" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="R70" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="S70" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T70" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="U70">
         <v>36</v>
       </c>
       <c r="V70" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="W70" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="X70">
         <v>0</v>
       </c>
       <c r="Y70" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -8543,46 +8564,46 @@
         <v>325</v>
       </c>
       <c r="I71" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="J71" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K71" t="s">
         <v>44</v>
       </c>
       <c r="L71" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="M71" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="N71" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="O71" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="P71" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q71" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="R71" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="S71" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="U71">
         <v>292</v>
       </c>
       <c r="V71" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="W71" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="X71">
         <v>0</v>
@@ -8614,49 +8635,49 @@
         <v>325</v>
       </c>
       <c r="I72" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="J72" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K72" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="L72" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="M72" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="N72" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="O72" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="P72" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q72" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="R72" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="S72" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="T72" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="U72">
         <v>20</v>
       </c>
       <c r="V72" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="W72" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="X72">
         <v>1</v>
@@ -8688,52 +8709,52 @@
         <v>325</v>
       </c>
       <c r="I73" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="J73" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K73" t="s">
         <v>27</v>
       </c>
       <c r="M73" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="N73" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="O73" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="P73" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q73" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="R73" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="S73" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T73" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="U73">
         <v>6</v>
       </c>
       <c r="V73" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="W73" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="X73">
         <v>8</v>
       </c>
       <c r="Y73" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -8762,46 +8783,46 @@
         <v>325</v>
       </c>
       <c r="I74" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="J74" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K74" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="M74" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="N74" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="P74" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q74" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="R74" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="S74" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T74" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="U74">
         <v>279</v>
       </c>
       <c r="V74" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="W74" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X74">
         <v>0</v>
@@ -8833,49 +8854,49 @@
         <v>325</v>
       </c>
       <c r="I75" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="J75" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K75" t="s">
         <v>27</v>
       </c>
       <c r="L75" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="M75" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="N75" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="O75" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="P75" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q75" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="R75" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="S75" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T75" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="U75">
         <v>253</v>
       </c>
       <c r="V75" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="W75" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X75">
         <v>0</v>
@@ -8907,49 +8928,49 @@
         <v>325</v>
       </c>
       <c r="I76" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="J76" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K76" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="L76" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="M76" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="N76" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="O76" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="P76" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q76" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="R76" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="S76" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T76" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="U76">
         <v>28</v>
       </c>
       <c r="V76" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="W76" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="X76">
         <v>4</v>
@@ -8981,49 +9002,49 @@
         <v>325</v>
       </c>
       <c r="I77" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="J77" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K77" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="M77" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="N77" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="O77" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="P77" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q77" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="R77" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="S77" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="U77">
         <v>39</v>
       </c>
       <c r="V77" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="W77" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="X77">
         <v>1</v>
       </c>
       <c r="Y77" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -9052,52 +9073,52 @@
         <v>325</v>
       </c>
       <c r="I78" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="J78" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K78" t="s">
         <v>24</v>
       </c>
       <c r="M78" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="N78" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="O78" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="P78" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q78" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="R78" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="S78" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T78" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="U78">
         <v>5</v>
       </c>
       <c r="V78" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="W78" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="X78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y78" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -9126,46 +9147,46 @@
         <v>325</v>
       </c>
       <c r="I79" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="J79" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K79" t="s">
         <v>28</v>
       </c>
       <c r="L79" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="M79" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="N79" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="O79" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="Q79" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="R79" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="S79" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T79" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="U79">
         <v>299</v>
       </c>
       <c r="V79" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="W79" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="X79">
         <v>0</v>
@@ -9194,52 +9215,52 @@
         <v>324</v>
       </c>
       <c r="H80" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I80" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="J80" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K80" t="s">
         <v>24</v>
       </c>
       <c r="M80" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="N80" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="P80" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q80" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="R80" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="S80" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="T80" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="U80">
         <v>885</v>
       </c>
       <c r="V80" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="W80" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X80">
         <v>0</v>
       </c>
       <c r="Y80" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -9265,55 +9286,55 @@
         <v>324</v>
       </c>
       <c r="H81" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="I81" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="J81" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K81" t="s">
         <v>25</v>
       </c>
       <c r="M81" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N81" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="O81" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="P81" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q81" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="R81" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="S81" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T81" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="U81">
         <v>212</v>
       </c>
       <c r="V81" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="W81" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="X81">
         <v>0</v>
       </c>
       <c r="Y81" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -9339,52 +9360,52 @@
         <v>324</v>
       </c>
       <c r="H82" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="I82" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="J82" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K82" t="s">
         <v>24</v>
       </c>
       <c r="M82" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="N82" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="O82" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="P82" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="R82" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="S82" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T82" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="U82">
         <v>8</v>
       </c>
       <c r="V82" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="W82" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="X82">
         <v>7</v>
       </c>
       <c r="Y82" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -9410,52 +9431,52 @@
         <v>324</v>
       </c>
       <c r="H83" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="I83" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J83" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K83" t="s">
         <v>26</v>
       </c>
       <c r="M83" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="N83" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="O83" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="Q83" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="R83" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S83" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T83" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="U83">
         <v>773</v>
       </c>
       <c r="V83" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="W83" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X83">
         <v>0</v>
       </c>
       <c r="Y83" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -9481,49 +9502,49 @@
         <v>324</v>
       </c>
       <c r="H84" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="I84" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="J84" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K84" t="s">
         <v>28</v>
       </c>
       <c r="M84" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="N84" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="Q84" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="R84" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="S84" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T84" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="U84">
         <v>1057</v>
       </c>
       <c r="V84" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="W84" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X84">
         <v>0</v>
       </c>
       <c r="Y84" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -9549,55 +9570,55 @@
         <v>324</v>
       </c>
       <c r="H85" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="I85" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="J85" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K85" t="s">
         <v>24</v>
       </c>
       <c r="M85" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="N85" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="O85" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="P85" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q85" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="R85" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S85" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T85" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="U85">
         <v>33</v>
       </c>
       <c r="V85" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="W85" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="X85">
         <v>1</v>
       </c>
       <c r="Y85" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -9626,43 +9647,43 @@
         <v>325</v>
       </c>
       <c r="I86" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="J86" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K86" t="s">
         <v>321</v>
       </c>
       <c r="M86" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="N86" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="O86" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="P86" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q86" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="R86" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S86" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="W86" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X86">
         <v>0</v>
       </c>
       <c r="Y86" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -9688,52 +9709,52 @@
         <v>324</v>
       </c>
       <c r="H87" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="I87" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="J87" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K87" t="s">
         <v>27</v>
       </c>
       <c r="M87" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="N87" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="O87" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="P87" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="R87" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="S87" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T87" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="U87">
         <v>5</v>
       </c>
       <c r="V87" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="W87" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="X87">
         <v>17</v>
       </c>
       <c r="Y87" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -9762,46 +9783,46 @@
         <v>325</v>
       </c>
       <c r="I88" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="J88" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K88" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="M88" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="N88" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="O88" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="P88" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="R88" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="S88" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T88" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="U88">
         <v>569</v>
       </c>
       <c r="V88" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="W88" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="X88">
         <v>0</v>
@@ -9833,49 +9854,49 @@
         <v>325</v>
       </c>
       <c r="I89" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="J89" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K89" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="L89" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="M89" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="N89" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="O89" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="P89" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="Q89" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="R89" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S89" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="T89" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="U89">
         <v>194</v>
       </c>
       <c r="V89" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="W89" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X89">
         <v>0</v>
@@ -9904,55 +9925,55 @@
         <v>324</v>
       </c>
       <c r="H90" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="I90" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="J90" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K90" t="s">
         <v>321</v>
       </c>
       <c r="M90" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="N90" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="O90" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="P90" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q90" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="R90" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="S90" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T90" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="U90">
         <v>128</v>
       </c>
       <c r="V90" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="W90" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="X90">
         <v>0</v>
       </c>
       <c r="Y90" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
     </row>
     <row r="91" spans="1:25">
@@ -9978,55 +9999,55 @@
         <v>324</v>
       </c>
       <c r="H91" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I91" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="J91" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K91" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="M91" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="N91" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="O91" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="P91" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q91" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="R91" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="S91" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T91" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="U91">
         <v>10</v>
       </c>
       <c r="V91" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="W91" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="X91">
         <v>9</v>
       </c>
       <c r="Y91" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
     </row>
     <row r="92" spans="1:25">
@@ -10055,46 +10076,46 @@
         <v>325</v>
       </c>
       <c r="I92" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="J92" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K92" t="s">
         <v>45</v>
       </c>
       <c r="L92" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="M92" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="N92" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="O92" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="P92" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q92" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="R92" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="S92" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="U92">
         <v>309</v>
       </c>
       <c r="V92" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="W92" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="X92">
         <v>0</v>
@@ -10126,49 +10147,49 @@
         <v>325</v>
       </c>
       <c r="I93" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="J93" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K93" t="s">
         <v>25</v>
       </c>
       <c r="M93" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="N93" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="P93" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q93" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="R93" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="S93" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T93" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="U93">
         <v>169</v>
       </c>
       <c r="V93" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="W93" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="X93">
         <v>0</v>
       </c>
       <c r="Y93" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
     </row>
     <row r="94" spans="1:25">
@@ -10197,49 +10218,49 @@
         <v>325</v>
       </c>
       <c r="I94" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="J94" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K94" t="s">
         <v>27</v>
       </c>
       <c r="L94" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="M94" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="N94" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="O94" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="P94" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q94" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="R94" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="S94" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T94" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="U94">
         <v>166</v>
       </c>
       <c r="V94" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="W94" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X94">
         <v>0</v>
@@ -10271,52 +10292,52 @@
         <v>325</v>
       </c>
       <c r="I95" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="J95" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K95" t="s">
         <v>27</v>
       </c>
       <c r="M95" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="N95" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="O95" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="P95" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q95" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="R95" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="S95" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T95" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="U95">
         <v>385</v>
       </c>
       <c r="V95" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="W95" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="X95">
         <v>0</v>
       </c>
       <c r="Y95" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
     </row>
     <row r="96" spans="1:25">
@@ -10345,52 +10366,52 @@
         <v>325</v>
       </c>
       <c r="I96" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="J96" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K96" t="s">
         <v>24</v>
       </c>
       <c r="M96" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N96" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="O96" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="P96" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q96" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="R96" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="S96" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="T96" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="U96">
         <v>18</v>
       </c>
       <c r="V96" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="W96" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="X96">
         <v>3</v>
       </c>
       <c r="Y96" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="97" spans="1:25">
@@ -10416,55 +10437,55 @@
         <v>324</v>
       </c>
       <c r="H97" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="I97" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="J97" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K97" t="s">
         <v>25</v>
       </c>
       <c r="M97" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="N97" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="O97" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="P97" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q97" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="R97" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="S97" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="T97" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="U97">
         <v>108</v>
       </c>
       <c r="V97" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="W97" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="X97">
         <v>0</v>
       </c>
       <c r="Y97" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="98" spans="1:25">
@@ -10493,52 +10514,52 @@
         <v>325</v>
       </c>
       <c r="I98" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="J98" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K98" t="s">
         <v>25</v>
       </c>
       <c r="M98" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="N98" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="O98" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="P98" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q98" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="R98" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S98" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T98" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="U98">
         <v>23</v>
       </c>
       <c r="V98" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="W98" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="X98">
         <v>2</v>
       </c>
       <c r="Y98" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -10564,55 +10585,55 @@
         <v>324</v>
       </c>
       <c r="H99" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I99" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="J99" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K99" t="s">
         <v>25</v>
       </c>
       <c r="M99" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="N99" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="O99" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="P99" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q99" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="R99" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="S99" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T99" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="U99">
         <v>400</v>
       </c>
       <c r="V99" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="W99" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="X99">
         <v>0</v>
       </c>
       <c r="Y99" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="100" spans="1:25">
@@ -10638,55 +10659,55 @@
         <v>324</v>
       </c>
       <c r="H100" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="I100" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="J100" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K100" t="s">
         <v>25</v>
       </c>
       <c r="M100" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="N100" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="O100" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="P100" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q100" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="R100" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="S100" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="T100" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="U100">
         <v>3</v>
       </c>
       <c r="V100" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="W100" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="X100">
         <v>12</v>
       </c>
       <c r="Y100" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
